--- a/curso-completo/excel_365_do_zero_ao_avancado/3.basico_formatacao_de_planilhas/25.pincel_de_formatacao/18+-+Pincel+de+formatação.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/3.basico_formatacao_de_planilhas/25.pincel_de_formatacao/18+-+Pincel+de+formatação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\3.basico_formatacao_de_planilhas\25.pincel_de_formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFADD0AC-2E75-402F-BD53-B93D0D51F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899D07FD-B739-4C73-8E09-010CB9135C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividade 01" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,12 +304,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +434,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,6 +460,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -800,54 +796,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="4"/>
-      <c r="G7" t="s">
+      <c r="G7" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -857,17 +858,17 @@
       <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -880,14 +881,14 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>1476</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <v>88.56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -900,14 +901,14 @@
       <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>1500</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -920,14 +921,14 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>1197</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="10">
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -940,14 +941,14 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>1117</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="10">
         <v>67.02</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -960,14 +961,14 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>1253</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="10">
         <v>75.179999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -980,17 +981,18 @@
       <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>1245</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="10">
         <v>74.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="B7:D8"/>
+    <mergeCell ref="G7:I8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -999,39 +1001,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE914B1-45A8-4E5E-A7E6-B62ABF30EE07}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.26953125" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
@@ -1039,47 +1042,49 @@
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1095,55 +1100,57 @@
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>520</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="13">
         <v>520</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1159,58 +1166,61 @@
       <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>340</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>85</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="13">
         <v>85</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="N13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1222,73 +1232,74 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.26953125" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="H7" t="s">
+      <c r="H7" s="29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1304,43 +1315,43 @@
       <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>5</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>8.5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="17">
         <v>8.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -1356,43 +1367,43 @@
       <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="9">
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>5</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="16">
         <v>5</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="17">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>52</v>
       </c>
@@ -1408,43 +1419,43 @@
       <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>3</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>2.7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="17">
         <v>2.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -1460,43 +1471,43 @@
       <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>5</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="9">
         <v>2.35</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>1.5</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>2.1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="16">
         <v>1.5</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="17">
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>58</v>
       </c>
@@ -1512,46 +1523,47 @@
       <c r="H18" t="s">
         <v>58</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="9">
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>3</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>1.19</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="16">
         <v>3</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="17">
         <v>1.19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1562,89 +1574,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB375415-D770-46AB-934C-E1DBA43DC218}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B7" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="G7" t="s">
+      <c r="G7" s="30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>1500</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="G9" t="s">
+      <c r="D9" s="20"/>
+      <c r="G9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="19">
         <v>1500</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>44647</v>
       </c>
       <c r="D12" s="9">
@@ -1653,38 +1669,38 @@
       <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>44647</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>44647</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>80</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="23">
         <v>44647</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="24">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>44647</v>
       </c>
       <c r="D14" s="9">
@@ -1693,38 +1709,38 @@
       <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>44647</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>44647</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>250</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="23">
         <v>44647</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="24">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>44647</v>
       </c>
       <c r="D16" s="9">
@@ -1733,17 +1749,18 @@
       <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>44647</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1758,29 +1775,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1796,18 +1813,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
